--- a/DataAnalysis/fileExcel/绑定注册1.xlsx
+++ b/DataAnalysis/fileExcel/绑定注册1.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/PycharmProjects/DataAnalysis/fileExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="13540" yWindow="460" windowWidth="35020" windowHeight="25020"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>时间</t>
   </si>
@@ -78,16 +91,54 @@
   <si>
     <t>2020-5</t>
   </si>
+  <si>
+    <t>2020-6</t>
+  </si>
+  <si>
+    <t>总量</t>
+    <rPh sb="0" eb="1">
+      <t>zong'laing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内APP注册绑定设备（截止到7月1号）</t>
+    <rPh sb="0" eb="1">
+      <t>guo'nei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bang'ding</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>she'b</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie'zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,17 +146,50 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -135,22 +219,1538 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>APP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>注册机器绑定走势图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>注册量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$F$21:$U$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$22:$U$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>213.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>522.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1042.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1787.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2679.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6168.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>机器绑定总量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$F$21:$U$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$23:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>801.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1323.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4808.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>吸尘器绑定总量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$F$21:$U$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$24:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>157.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>水机绑定总量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$F$21:$U$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="12">
+                  <c:v>474.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1130.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1810.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4614.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>吹风机绑定总量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$F$21:$U$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$26:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="12">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1911195600"/>
+        <c:axId val="-1911193824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1911195600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1911193824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1911193824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1911195600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>664306</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>664306</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -192,12 +1792,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -224,14 +1824,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -258,6 +1859,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,14 +2035,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +2067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -471,13 +2078,13 @@
         <v>180</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -485,16 +2092,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -511,7 +2118,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -528,7 +2135,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -536,16 +2143,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -562,7 +2169,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -570,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D8">
         <v>129</v>
@@ -579,7 +2186,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -587,16 +2194,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -604,16 +2211,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D10">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E10">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -621,16 +2228,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E11">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -641,13 +2248,13 @@
         <v>325</v>
       </c>
       <c r="D12">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E12">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -655,16 +2262,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D13">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -672,22 +2279,22 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="D14">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="E14">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F14">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G14">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -695,22 +2302,22 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="D15">
-        <v>1345</v>
+        <v>1323</v>
       </c>
       <c r="E15">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F15">
-        <v>1146</v>
+        <v>1130</v>
       </c>
       <c r="G15">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -718,22 +2325,365 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="D16">
-        <v>2053</v>
+        <v>1995</v>
       </c>
       <c r="E16">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="F16">
-        <v>1796</v>
+        <v>1810</v>
       </c>
       <c r="G16">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>6168</v>
+      </c>
+      <c r="D17">
+        <v>4808</v>
+      </c>
+      <c r="E17">
+        <v>157</v>
+      </c>
+      <c r="F17">
+        <v>4614</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>180</v>
+      </c>
+      <c r="G22" s="6">
+        <v>192</v>
+      </c>
+      <c r="H22" s="6">
+        <v>233</v>
+      </c>
+      <c r="I22" s="6">
+        <v>223</v>
+      </c>
+      <c r="J22" s="6">
+        <v>124</v>
+      </c>
+      <c r="K22" s="6">
+        <v>212</v>
+      </c>
+      <c r="L22" s="6">
+        <v>410</v>
+      </c>
+      <c r="M22" s="6">
+        <v>213</v>
+      </c>
+      <c r="N22" s="6">
+        <v>522</v>
+      </c>
+      <c r="O22" s="6">
+        <v>410</v>
+      </c>
+      <c r="P22" s="6">
+        <v>325</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>248</v>
+      </c>
+      <c r="R22" s="6">
+        <v>1042</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1787</v>
+      </c>
+      <c r="T22" s="6">
+        <v>2679</v>
+      </c>
+      <c r="U22" s="6">
+        <v>6168</v>
+      </c>
+      <c r="V22" s="6">
+        <f>SUM(F22:U22)</f>
+        <v>14968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>72</v>
+      </c>
+      <c r="G23" s="6">
+        <v>83</v>
+      </c>
+      <c r="H23" s="6">
+        <v>128</v>
+      </c>
+      <c r="I23" s="6">
+        <v>191</v>
+      </c>
+      <c r="J23" s="6">
+        <v>94</v>
+      </c>
+      <c r="K23" s="6">
+        <v>118</v>
+      </c>
+      <c r="L23" s="6">
+        <v>129</v>
+      </c>
+      <c r="M23" s="6">
+        <v>121</v>
+      </c>
+      <c r="N23" s="6">
+        <v>345</v>
+      </c>
+      <c r="O23" s="6">
+        <v>190</v>
+      </c>
+      <c r="P23" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>172</v>
+      </c>
+      <c r="R23" s="6">
+        <v>801</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1323</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1995</v>
+      </c>
+      <c r="U23" s="6">
+        <v>4808</v>
+      </c>
+      <c r="V23" s="6">
+        <f>SUM(F23:U23)</f>
+        <v>10770</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>72</v>
+      </c>
+      <c r="G24" s="6">
+        <v>83</v>
+      </c>
+      <c r="H24" s="6">
+        <v>128</v>
+      </c>
+      <c r="I24" s="6">
+        <v>191</v>
+      </c>
+      <c r="J24" s="6">
+        <v>94</v>
+      </c>
+      <c r="K24" s="6">
+        <v>118</v>
+      </c>
+      <c r="L24" s="6">
+        <v>129</v>
+      </c>
+      <c r="M24" s="6">
+        <v>121</v>
+      </c>
+      <c r="N24" s="6">
+        <v>345</v>
+      </c>
+      <c r="O24" s="6">
+        <v>190</v>
+      </c>
+      <c r="P24" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>171</v>
+      </c>
+      <c r="R24" s="6">
+        <v>260</v>
+      </c>
+      <c r="S24" s="6">
+        <v>156</v>
+      </c>
+      <c r="T24" s="6">
+        <v>148</v>
+      </c>
+      <c r="U24" s="6">
+        <v>157</v>
+      </c>
+      <c r="V24" s="6">
+        <f>SUM(F24:U24)</f>
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6">
+        <v>474</v>
+      </c>
+      <c r="S25" s="6">
+        <v>1130</v>
+      </c>
+      <c r="T25" s="6">
+        <v>1810</v>
+      </c>
+      <c r="U25" s="6">
+        <v>4614</v>
+      </c>
+      <c r="V25" s="6">
+        <f>SUM(R25:U25)</f>
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6">
+        <v>67</v>
+      </c>
+      <c r="S26" s="6">
+        <v>37</v>
+      </c>
+      <c r="T26" s="6">
+        <v>37</v>
+      </c>
+      <c r="U26" s="6">
+        <v>37</v>
+      </c>
+      <c r="V26" s="6">
+        <f>SUM(R26:U26)</f>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E20:V20"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>